--- a/data/war_game.xlsx
+++ b/data/war_game.xlsx
@@ -398,102 +398,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Serial</v>
+      </c>
+      <c r="B1" t="str">
         <v>GameID</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Age</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Gender</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Serial</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
         <v>GTEST123</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Tester</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>M</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v>Tester</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3" t="str">
+        <v>X</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Serial</v>
+      </c>
+      <c r="B1" t="str">
         <v>GameID</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>PlayerChoice1</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>PlayerCard1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>ComputerCard1</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Outcome1</v>
       </c>
-      <c r="F1" t="str">
-        <v>Serial</v>
+      <c r="G1" t="str">
+        <v>PlayerChoice2</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PlayerCard2</v>
+      </c>
+      <c r="I1" t="str">
+        <v>ComputerCard2</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Outcome2</v>
+      </c>
+      <c r="K1" t="str">
+        <v>PlayerChoice3</v>
+      </c>
+      <c r="L1" t="str">
+        <v>PlayerCard3</v>
+      </c>
+      <c r="M1" t="str">
+        <v>ComputerCard3</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Outcome3</v>
+      </c>
+      <c r="O1" t="str">
+        <v>PlayerChoice4</v>
+      </c>
+      <c r="P1" t="str">
+        <v>PlayerCard4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>ComputerCard4</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Outcome4</v>
+      </c>
+      <c r="S1" t="str">
+        <v>PlayerChoice5</v>
+      </c>
+      <c r="T1" t="str">
+        <v>PlayerCard5</v>
+      </c>
+      <c r="U1" t="str">
+        <v>ComputerCard5</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Outcome5</v>
+      </c>
+      <c r="W1" t="str">
+        <v>PlayerChoice6</v>
+      </c>
+      <c r="X1" t="str">
+        <v>PlayerCard6</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>ComputerCard6</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Outcome6</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>PlayerChoice7</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>PlayerCard7</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>ComputerCard7</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Outcome7</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>PlayerChoice8</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>PlayerCard8</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>ComputerCard8</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Outcome8</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>PlayerChoice9</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>PlayerCard9</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>ComputerCard9</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Outcome9</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>PlayerChoice10</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>PlayerCard10</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>ComputerCard10</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Outcome10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
         <v>GTEST123</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Play</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>You Win!</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>GTEMP</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <v/>
+      </c>
+      <c r="AM3" t="str">
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AP3"/>
   </ignoredErrors>
 </worksheet>
 </file>